--- a/testNGproject/ExcelFile/Untitled spreadsheet.xlsx
+++ b/testNGproject/ExcelFile/Untitled spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -28,16 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Abishek</t>
+    <t xml:space="preserve">Abhishek</t>
   </si>
   <si>
     <t xml:space="preserve">Admin@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a12</t>
   </si>
 </sst>
 </file>
@@ -156,7 +150,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -174,17 +168,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Admin@123"/>
+    <hyperlink ref="B3" r:id="rId2" display="Admin@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
